--- a/Models/results_df_Classes_1removed1.xlsx
+++ b/Models/results_df_Classes_1removed1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b149b67652cc3594/Documents/GitHub/Depression_Gait_Balance/Models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohamed\OneDrive\Documents\GitHub\Depression_Gait_Balance\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_55DD20F8CB4B4C15BB2C4C2ED5EF3841797AC78F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DF431FB-A01A-4C3C-97FC-80F8912356E0}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046539C1-F8DD-44C0-ABF5-52FB73897A79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1121,7 +1121,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
